--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-476022.765866308</v>
+        <v>-478828.2806097509</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>68.01893541001353</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>24.40368540321276</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7555630447431</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.790112058029996</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>88.01079640355611</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>27.56106153707855</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>65.29997400339131</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>38.90277548231339</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>386.1790080406557</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1151,7 +1151,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>114.790886563363</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>121.043946660615</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>156.4876009980446</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>36.39209596079014</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365927</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>103.1686991936197</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>13.72582864853591</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016461</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>55.52079624060239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>45.89043756183489</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>31.40247677522967</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>161.1739971048551</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>46.52295781333244</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.11398998229679</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>159.2661870898838</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.981188826526</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>898.8784838925781</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C2" t="n">
-        <v>898.8784838925781</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D2" t="n">
-        <v>540.6127852858276</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E2" t="n">
-        <v>540.6127852858276</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>540.6127852858276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>122.6489771840145</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y2" t="n">
-        <v>898.8784838925781</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4398,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545818</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545818</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545818</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545818</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>525.3455871915424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>525.3455871915424</v>
+        <v>512.0323670265868</v>
       </c>
       <c r="U4" t="n">
-        <v>525.3455871915424</v>
+        <v>512.0323670265868</v>
       </c>
       <c r="V4" t="n">
-        <v>525.3455871915424</v>
+        <v>257.3478788207</v>
       </c>
       <c r="W4" t="n">
-        <v>235.9284171545818</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545818</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545818</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223454</v>
+        <v>2147.505845071312</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>1778.543328130901</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>1420.27762952415</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1034.489376925906</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>623.5034721362983</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2669.309634920163</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2450.674967892226</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U5" t="n">
-        <v>2450.674967892226</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V5" t="n">
-        <v>2119.612080548655</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W5" t="n">
-        <v>2119.612080548655</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X5" t="n">
-        <v>1746.146322287575</v>
+        <v>2147.505845071312</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>2147.505845071312</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>372.9958041606071</v>
+        <v>688.8332513960166</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>688.8332513960166</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>688.8332513960166</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1136.212926725222</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C8" t="n">
-        <v>1136.212926725222</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9472281184711</v>
+        <v>894.9862514725851</v>
       </c>
       <c r="E8" t="n">
-        <v>392.1589755202269</v>
+        <v>894.9862514725851</v>
       </c>
       <c r="F8" t="n">
-        <v>385.2134747710234</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202536</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>242.5828808341008</v>
@@ -4808,19 +4808,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1094.463253419559</v>
       </c>
       <c r="M8" t="n">
         <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1475.496879136949</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2451.973130243321</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.071304439191</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>1642.302649169077</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>1526.352258701033</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1136.212926725222</v>
+        <v>1639.851790143457</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.0306379830699</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1747.448946920904</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2296.884955673627</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>764.4604932427485</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>595.5243103148416</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>595.5243103148416</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>447.6112167324485</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>300.7212692345381</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>300.7212692345381</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460381</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>895.8093794433005</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>606.6572030209802</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>351.9727148150933</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>351.9727148150933</v>
+        <v>764.4604932427485</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9727148150933</v>
+        <v>764.4604932427485</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9727148150933</v>
+        <v>764.4604932427485</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851653</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572584</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>527.7722521572584</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>379.8591585748653</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>379.8591585748653</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>212.6630592897453</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956953</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058935</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154051</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5267,25 +5267,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380872</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101803</v>
       </c>
       <c r="D16" t="n">
-        <v>240.7066105458822</v>
+        <v>422.7903292978446</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>274.8772357154514</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683269</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5750,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2415.243410069927</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2232.388575724832</v>
+        <v>2217.115362555031</v>
       </c>
       <c r="T22" t="n">
-        <v>2012.787110747773</v>
+        <v>1997.513897577973</v>
       </c>
       <c r="U22" t="n">
-        <v>1723.711884091971</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,19 +6306,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>342.9460855475331</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.7499862624131</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.7499862624131</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6610,7 +6610,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,19 +6780,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1816.58614405608</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,13 +7588,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8456,7 +8456,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>312.2066704284443</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>20.72114122105265</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>255.9038373543436</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>280.9621007128099</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>293.7060255719074</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.9026168854337</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>211.5151132204106</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>45.44677382459263</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>131.6952193743953</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610422</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>179.8192178272032</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.97276993489202</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>19.8522888967895</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>205.6146855104956</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0.151846336268747</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>126.9182872993604</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26314,16 +26314,16 @@
         <v>229059.6437758989</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="E2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="G2" t="n">
         <v>262322.6448992519</v>
@@ -26335,13 +26335,13 @@
         <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="K2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
         <v>262322.644899252</v>
@@ -26353,7 +26353,7 @@
         <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363194</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,37 +26421,37 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682718</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682757</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="L4" t="n">
+        <v>5677.536566682752</v>
+      </c>
+      <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="M4" t="n">
-        <v>5677.536566682754</v>
-      </c>
       <c r="N4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
         <v>13668.3958297762</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-587342.1283177398</v>
+        <v>-587632.7354825858</v>
       </c>
       <c r="C6" t="n">
-        <v>-25942.91832055038</v>
+        <v>-25942.91832055067</v>
       </c>
       <c r="D6" t="n">
         <v>-181746.7244143455</v>
       </c>
       <c r="E6" t="n">
-        <v>-615530.1128721444</v>
+        <v>-615564.8507975799</v>
       </c>
       <c r="F6" t="n">
-        <v>155522.5785086621</v>
+        <v>155487.8405832264</v>
       </c>
       <c r="G6" t="n">
-        <v>155522.5785086622</v>
+        <v>155487.8405832264</v>
       </c>
       <c r="H6" t="n">
-        <v>155522.5785086621</v>
+        <v>155487.8405832265</v>
       </c>
       <c r="I6" t="n">
-        <v>155522.5785086621</v>
+        <v>155487.8405832262</v>
       </c>
       <c r="J6" t="n">
-        <v>-20900.64068393096</v>
+        <v>-20935.37860936634</v>
       </c>
       <c r="K6" t="n">
-        <v>155522.5785086622</v>
+        <v>155487.8405832264</v>
       </c>
       <c r="L6" t="n">
-        <v>155522.5785086619</v>
+        <v>155487.8405832264</v>
       </c>
       <c r="M6" t="n">
-        <v>31314.06780060385</v>
+        <v>31279.3298751679</v>
       </c>
       <c r="N6" t="n">
-        <v>130578.3455285688</v>
+        <v>130578.3455285687</v>
       </c>
       <c r="O6" t="n">
-        <v>150006.0635222007</v>
+        <v>150006.0635222009</v>
       </c>
       <c r="P6" t="n">
-        <v>150006.0635222007</v>
+        <v>150006.0635222005</v>
       </c>
     </row>
   </sheetData>
@@ -26719,10 +26719,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,13 +26987,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,20 +27379,20 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>68.27886800460311</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>51.62138970334883</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>11.38997590527583</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>223.2449934000543</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>325.7733736172389</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>146.8546512718929</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>186.8376693204367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>247.6202228542776</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>20.69703770105576</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>254.940214115106</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>31.66815000861759</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28062,16 +28062,16 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>66.8853037227141</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,22 +33500,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34448,10 +34448,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,7 +35176,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>452.9426864297102</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,16 +35258,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>221.3845166277846</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
